--- a/attendance-files/FA-II/FA-II (F) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (F) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="170">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -535,7 +535,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ d\ mmmm\,\ yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -584,6 +584,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -907,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1023,6 +1028,9 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="19" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -1654,7 +1662,7 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>20</v>
@@ -1683,8 +1691,12 @@
       <c r="O7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
+      <c r="P7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R7" s="35"/>
       <c r="S7" s="35"/>
       <c r="T7" s="35"/>
@@ -1716,7 +1728,7 @@
       </c>
       <c r="F8" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>20</v>
@@ -1745,8 +1757,12 @@
       <c r="O8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
+      <c r="P8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R8" s="42"/>
       <c r="S8" s="42"/>
       <c r="T8" s="42"/>
@@ -1778,7 +1794,7 @@
       </c>
       <c r="F9" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>20</v>
@@ -1807,8 +1823,12 @@
       <c r="O9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
+      <c r="P9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R9" s="42"/>
       <c r="S9" s="42"/>
       <c r="T9" s="42"/>
@@ -1836,11 +1856,11 @@
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="39">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>20</v>
@@ -1869,8 +1889,12 @@
       <c r="O10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
+      <c r="P10" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R10" s="42"/>
       <c r="S10" s="42"/>
       <c r="T10" s="42"/>
@@ -1902,7 +1926,7 @@
       </c>
       <c r="F11" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>20</v>
@@ -1931,8 +1955,12 @@
       <c r="O11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
+      <c r="P11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R11" s="42"/>
       <c r="S11" s="42"/>
       <c r="T11" s="42"/>
@@ -1964,7 +1992,7 @@
       </c>
       <c r="F12" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>20</v>
@@ -1993,8 +2021,12 @@
       <c r="O12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
+      <c r="P12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R12" s="42"/>
       <c r="S12" s="42"/>
       <c r="T12" s="42"/>
@@ -2026,7 +2058,7 @@
       </c>
       <c r="F13" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>20</v>
@@ -2055,8 +2087,12 @@
       <c r="O13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
+      <c r="P13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R13" s="42"/>
       <c r="S13" s="42"/>
       <c r="T13" s="42"/>
@@ -2088,7 +2124,7 @@
       </c>
       <c r="F14" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>20</v>
@@ -2117,8 +2153,12 @@
       <c r="O14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
+      <c r="P14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R14" s="42"/>
       <c r="S14" s="42"/>
       <c r="T14" s="42"/>
@@ -2146,11 +2186,11 @@
       </c>
       <c r="E15" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>20</v>
@@ -2179,8 +2219,12 @@
       <c r="O15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
+      <c r="P15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="R15" s="42"/>
       <c r="S15" s="42"/>
       <c r="T15" s="42"/>
@@ -2212,7 +2256,7 @@
       </c>
       <c r="F16" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>20</v>
@@ -2241,8 +2285,12 @@
       <c r="O16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
+      <c r="P16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R16" s="42"/>
       <c r="S16" s="42"/>
       <c r="T16" s="42"/>
@@ -2274,7 +2322,7 @@
       </c>
       <c r="F17" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>20</v>
@@ -2303,8 +2351,12 @@
       <c r="O17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
+      <c r="P17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R17" s="42"/>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -2336,7 +2388,7 @@
       </c>
       <c r="F18" s="39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>20</v>
@@ -2365,8 +2417,12 @@
       <c r="O18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
+      <c r="P18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R18" s="42"/>
       <c r="S18" s="42"/>
       <c r="T18" s="42"/>
@@ -2398,7 +2454,7 @@
       </c>
       <c r="F19" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>20</v>
@@ -2418,7 +2474,7 @@
       <c r="L19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="43" t="s">
+      <c r="M19" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N19" s="33" t="s">
@@ -2427,8 +2483,12 @@
       <c r="O19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
+      <c r="P19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R19" s="42"/>
       <c r="S19" s="42"/>
       <c r="T19" s="42"/>
@@ -2460,7 +2520,7 @@
       </c>
       <c r="F20" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>20</v>
@@ -2489,8 +2549,12 @@
       <c r="O20" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
+      <c r="P20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R20" s="42"/>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
@@ -2522,7 +2586,7 @@
       </c>
       <c r="F21" s="39">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>21</v>
@@ -2542,7 +2606,7 @@
       <c r="L21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="43" t="s">
+      <c r="M21" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N21" s="33" t="s">
@@ -2551,8 +2615,12 @@
       <c r="O21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
+      <c r="P21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R21" s="42"/>
       <c r="S21" s="42"/>
       <c r="T21" s="42"/>
@@ -2584,7 +2652,7 @@
       </c>
       <c r="F22" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>20</v>
@@ -2604,7 +2672,7 @@
       <c r="L22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="43" t="s">
+      <c r="M22" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N22" s="33" t="s">
@@ -2613,8 +2681,12 @@
       <c r="O22" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
+      <c r="P22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R22" s="42"/>
       <c r="S22" s="42"/>
       <c r="T22" s="42"/>
@@ -2646,7 +2718,7 @@
       </c>
       <c r="F23" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>20</v>
@@ -2675,8 +2747,12 @@
       <c r="O23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
+      <c r="P23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R23" s="42"/>
       <c r="S23" s="42"/>
       <c r="T23" s="42"/>
@@ -2704,11 +2780,11 @@
       </c>
       <c r="E24" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>20</v>
@@ -2737,8 +2813,12 @@
       <c r="O24" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
+      <c r="P24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="R24" s="42"/>
       <c r="S24" s="42"/>
       <c r="T24" s="42"/>
@@ -2770,7 +2850,7 @@
       </c>
       <c r="F25" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>20</v>
@@ -2799,8 +2879,12 @@
       <c r="O25" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
+      <c r="P25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R25" s="42"/>
       <c r="S25" s="42"/>
       <c r="T25" s="42"/>
@@ -2832,7 +2916,7 @@
       </c>
       <c r="F26" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>20</v>
@@ -2852,7 +2936,7 @@
       <c r="L26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="43" t="s">
+      <c r="M26" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N26" s="33" t="s">
@@ -2861,8 +2945,12 @@
       <c r="O26" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
+      <c r="P26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R26" s="42"/>
       <c r="S26" s="42"/>
       <c r="T26" s="42"/>
@@ -2894,7 +2982,7 @@
       </c>
       <c r="F27" s="39">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>21</v>
@@ -2923,8 +3011,12 @@
       <c r="O27" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
+      <c r="P27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R27" s="42"/>
       <c r="S27" s="42"/>
       <c r="T27" s="42"/>
@@ -2956,7 +3048,7 @@
       </c>
       <c r="F28" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>20</v>
@@ -2985,8 +3077,12 @@
       <c r="O28" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
+      <c r="P28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R28" s="42"/>
       <c r="S28" s="42"/>
       <c r="T28" s="42"/>
@@ -3018,7 +3114,7 @@
       </c>
       <c r="F29" s="39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>20</v>
@@ -3047,8 +3143,12 @@
       <c r="O29" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
+      <c r="P29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R29" s="42"/>
       <c r="S29" s="42"/>
       <c r="T29" s="42"/>
@@ -3080,7 +3180,7 @@
       </c>
       <c r="F30" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>20</v>
@@ -3109,8 +3209,12 @@
       <c r="O30" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
+      <c r="P30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R30" s="42"/>
       <c r="S30" s="42"/>
       <c r="T30" s="42"/>
@@ -3142,7 +3246,7 @@
       </c>
       <c r="F31" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>21</v>
@@ -3171,8 +3275,12 @@
       <c r="O31" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
+      <c r="P31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R31" s="42"/>
       <c r="S31" s="42"/>
       <c r="T31" s="42"/>
@@ -3204,7 +3312,7 @@
       </c>
       <c r="F32" s="39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32" s="30" t="s">
         <v>20</v>
@@ -3233,8 +3341,12 @@
       <c r="O32" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
+      <c r="P32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
@@ -3262,11 +3374,11 @@
       </c>
       <c r="E33" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>20</v>
@@ -3295,8 +3407,12 @@
       <c r="O33" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
+      <c r="P33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="R33" s="42"/>
       <c r="S33" s="42"/>
       <c r="T33" s="42"/>
@@ -3328,7 +3444,7 @@
       </c>
       <c r="F34" s="39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>20</v>
@@ -3348,7 +3464,7 @@
       <c r="L34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="43" t="s">
+      <c r="M34" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N34" s="33" t="s">
@@ -3357,8 +3473,12 @@
       <c r="O34" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
+      <c r="P34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R34" s="42"/>
       <c r="S34" s="42"/>
       <c r="T34" s="42"/>
@@ -3390,7 +3510,7 @@
       </c>
       <c r="F35" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>20</v>
@@ -3419,8 +3539,12 @@
       <c r="O35" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
+      <c r="P35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R35" s="42"/>
       <c r="S35" s="42"/>
       <c r="T35" s="42"/>
@@ -3448,11 +3572,11 @@
       </c>
       <c r="E36" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G36" s="30" t="s">
         <v>20</v>
@@ -3472,7 +3596,7 @@
       <c r="L36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="43" t="s">
+      <c r="M36" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N36" s="33" t="s">
@@ -3481,8 +3605,12 @@
       <c r="O36" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
+      <c r="P36" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
@@ -3514,7 +3642,7 @@
       </c>
       <c r="F37" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G37" s="30" t="s">
         <v>20</v>
@@ -3543,8 +3671,12 @@
       <c r="O37" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
+      <c r="P37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R37" s="42"/>
       <c r="S37" s="42"/>
       <c r="T37" s="42"/>
@@ -3576,7 +3708,7 @@
       </c>
       <c r="F38" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38" s="30" t="s">
         <v>20</v>
@@ -3596,7 +3728,7 @@
       <c r="L38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="43" t="s">
+      <c r="M38" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N38" s="33" t="s">
@@ -3605,8 +3737,12 @@
       <c r="O38" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
+      <c r="P38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R38" s="42"/>
       <c r="S38" s="42"/>
       <c r="T38" s="42"/>
@@ -3638,7 +3774,7 @@
       </c>
       <c r="F39" s="39">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>21</v>
@@ -3658,7 +3794,7 @@
       <c r="L39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M39" s="43" t="s">
+      <c r="M39" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N39" s="33" t="s">
@@ -3667,8 +3803,12 @@
       <c r="O39" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
+      <c r="P39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R39" s="42"/>
       <c r="S39" s="42"/>
       <c r="T39" s="42"/>
@@ -3700,7 +3840,7 @@
       </c>
       <c r="F40" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>20</v>
@@ -3729,8 +3869,12 @@
       <c r="O40" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
+      <c r="P40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R40" s="42"/>
       <c r="S40" s="42"/>
       <c r="T40" s="42"/>
@@ -3762,7 +3906,7 @@
       </c>
       <c r="F41" s="39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G41" s="30" t="s">
         <v>20</v>
@@ -3791,8 +3935,12 @@
       <c r="O41" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
+      <c r="P41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R41" s="42"/>
       <c r="S41" s="42"/>
       <c r="T41" s="42"/>
@@ -3820,11 +3968,11 @@
       </c>
       <c r="E42" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="39">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G42" s="30" t="s">
         <v>20</v>
@@ -3853,8 +4001,12 @@
       <c r="O42" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
+      <c r="P42" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q42" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R42" s="42"/>
       <c r="S42" s="42"/>
       <c r="T42" s="42"/>
@@ -3886,7 +4038,7 @@
       </c>
       <c r="F43" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G43" s="30" t="s">
         <v>20</v>
@@ -3906,7 +4058,7 @@
       <c r="L43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="43" t="s">
+      <c r="M43" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N43" s="33" t="s">
@@ -3915,8 +4067,12 @@
       <c r="O43" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
+      <c r="P43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R43" s="42"/>
       <c r="S43" s="42"/>
       <c r="T43" s="42"/>
@@ -3944,11 +4100,11 @@
       </c>
       <c r="E44" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G44" s="30" t="s">
         <v>20</v>
@@ -3968,7 +4124,7 @@
       <c r="L44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M44" s="43" t="s">
+      <c r="M44" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N44" s="33" t="s">
@@ -3977,8 +4133,12 @@
       <c r="O44" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42"/>
+      <c r="P44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="R44" s="42"/>
       <c r="S44" s="42"/>
       <c r="T44" s="42"/>
@@ -4006,11 +4166,11 @@
       </c>
       <c r="E45" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>20</v>
@@ -4039,8 +4199,12 @@
       <c r="O45" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="42"/>
+      <c r="P45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="R45" s="42"/>
       <c r="S45" s="42"/>
       <c r="T45" s="42"/>
@@ -4068,11 +4232,11 @@
       </c>
       <c r="E46" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" s="39">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G46" s="30" t="s">
         <v>20</v>
@@ -4092,7 +4256,7 @@
       <c r="L46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M46" s="43" t="s">
+      <c r="M46" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N46" s="33" t="s">
@@ -4101,8 +4265,12 @@
       <c r="O46" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
+      <c r="P46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="R46" s="42"/>
       <c r="S46" s="42"/>
       <c r="T46" s="42"/>
@@ -4134,7 +4302,7 @@
       </c>
       <c r="F47" s="39">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>21</v>
@@ -4154,7 +4322,7 @@
       <c r="L47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M47" s="43" t="s">
+      <c r="M47" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N47" s="33" t="s">
@@ -4163,8 +4331,12 @@
       <c r="O47" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
+      <c r="P47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R47" s="42"/>
       <c r="S47" s="42"/>
       <c r="T47" s="42"/>
@@ -4192,11 +4364,11 @@
       </c>
       <c r="E48" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G48" s="30" t="s">
         <v>20</v>
@@ -4225,8 +4397,12 @@
       <c r="O48" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="42"/>
+      <c r="P48" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R48" s="42"/>
       <c r="S48" s="42"/>
       <c r="T48" s="42"/>
@@ -4258,7 +4434,7 @@
       </c>
       <c r="F49" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G49" s="30" t="s">
         <v>20</v>
@@ -4287,8 +4463,12 @@
       <c r="O49" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="42"/>
+      <c r="P49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R49" s="42"/>
       <c r="S49" s="42"/>
       <c r="T49" s="42"/>
@@ -4320,7 +4500,7 @@
       </c>
       <c r="F50" s="39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>20</v>
@@ -4349,8 +4529,12 @@
       <c r="O50" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
+      <c r="P50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R50" s="42"/>
       <c r="S50" s="42"/>
       <c r="T50" s="42"/>
@@ -4382,7 +4566,7 @@
       </c>
       <c r="F51" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G51" s="30" t="s">
         <v>20</v>
@@ -4411,8 +4595,12 @@
       <c r="O51" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
+      <c r="P51" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R51" s="42"/>
       <c r="S51" s="42"/>
       <c r="T51" s="42"/>
@@ -4444,7 +4632,7 @@
       </c>
       <c r="F52" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" s="30" t="s">
         <v>20</v>
@@ -4464,7 +4652,7 @@
       <c r="L52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M52" s="43" t="s">
+      <c r="M52" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N52" s="33" t="s">
@@ -4473,8 +4661,12 @@
       <c r="O52" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
+      <c r="P52" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R52" s="42"/>
       <c r="S52" s="42"/>
       <c r="T52" s="42"/>
@@ -4506,7 +4698,7 @@
       </c>
       <c r="F53" s="39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G53" s="32" t="s">
         <v>21</v>
@@ -4535,8 +4727,12 @@
       <c r="O53" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="42"/>
+      <c r="P53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R53" s="42"/>
       <c r="S53" s="42"/>
       <c r="T53" s="42"/>
@@ -4568,7 +4764,7 @@
       </c>
       <c r="F54" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G54" s="30" t="s">
         <v>20</v>
@@ -4597,8 +4793,12 @@
       <c r="O54" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="42"/>
+      <c r="P54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R54" s="42"/>
       <c r="S54" s="42"/>
       <c r="T54" s="42"/>
@@ -4630,7 +4830,7 @@
       </c>
       <c r="F55" s="39">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>21</v>
@@ -4650,7 +4850,7 @@
       <c r="L55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M55" s="43" t="s">
+      <c r="M55" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N55" s="33" t="s">
@@ -4659,8 +4859,12 @@
       <c r="O55" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="42"/>
+      <c r="P55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R55" s="42"/>
       <c r="S55" s="42"/>
       <c r="T55" s="42"/>
@@ -4692,7 +4896,7 @@
       </c>
       <c r="F56" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G56" s="30" t="s">
         <v>20</v>
@@ -4721,8 +4925,12 @@
       <c r="O56" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P56" s="42"/>
-      <c r="Q56" s="42"/>
+      <c r="P56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R56" s="42"/>
       <c r="S56" s="42"/>
       <c r="T56" s="42"/>
@@ -4754,7 +4962,7 @@
       </c>
       <c r="F57" s="39">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G57" s="30" t="s">
         <v>20</v>
@@ -4774,7 +4982,7 @@
       <c r="L57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M57" s="43" t="s">
+      <c r="M57" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N57" s="32" t="s">
@@ -4783,8 +4991,12 @@
       <c r="O57" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P57" s="42"/>
-      <c r="Q57" s="42"/>
+      <c r="P57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R57" s="42"/>
       <c r="S57" s="42"/>
       <c r="T57" s="42"/>
@@ -4816,7 +5028,7 @@
       </c>
       <c r="F58" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G58" s="30" t="s">
         <v>20</v>
@@ -4845,8 +5057,12 @@
       <c r="O58" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
+      <c r="P58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R58" s="42"/>
       <c r="S58" s="42"/>
       <c r="T58" s="42"/>
@@ -4878,7 +5094,7 @@
       </c>
       <c r="F59" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G59" s="30" t="s">
         <v>20</v>
@@ -4898,7 +5114,7 @@
       <c r="L59" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M59" s="43" t="s">
+      <c r="M59" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N59" s="33" t="s">
@@ -4907,8 +5123,12 @@
       <c r="O59" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
+      <c r="P59" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R59" s="42"/>
       <c r="S59" s="42"/>
       <c r="T59" s="42"/>
@@ -4940,7 +5160,7 @@
       </c>
       <c r="F60" s="39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G60" s="30" t="s">
         <v>20</v>
@@ -4969,8 +5189,12 @@
       <c r="O60" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
+      <c r="P60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R60" s="42"/>
       <c r="S60" s="42"/>
       <c r="T60" s="42"/>
@@ -5002,7 +5226,7 @@
       </c>
       <c r="F61" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G61" s="30" t="s">
         <v>20</v>
@@ -5031,8 +5255,12 @@
       <c r="O61" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
+      <c r="P61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R61" s="42"/>
       <c r="S61" s="42"/>
       <c r="T61" s="42"/>
@@ -5064,7 +5292,7 @@
       </c>
       <c r="F62" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G62" s="30" t="s">
         <v>20</v>
@@ -5093,8 +5321,12 @@
       <c r="O62" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
+      <c r="P62" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R62" s="42"/>
       <c r="S62" s="42"/>
       <c r="T62" s="42"/>
@@ -5126,7 +5358,7 @@
       </c>
       <c r="F63" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G63" s="30" t="s">
         <v>20</v>
@@ -5155,8 +5387,12 @@
       <c r="O63" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P63" s="42"/>
-      <c r="Q63" s="42"/>
+      <c r="P63" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R63" s="42"/>
       <c r="S63" s="42"/>
       <c r="T63" s="42"/>
@@ -5184,7 +5420,7 @@
       </c>
       <c r="E64" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" s="39">
         <f t="shared" si="2"/>
@@ -5217,8 +5453,12 @@
       <c r="O64" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P64" s="42"/>
-      <c r="Q64" s="42"/>
+      <c r="P64" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="R64" s="42"/>
       <c r="S64" s="42"/>
       <c r="T64" s="42"/>
@@ -5250,7 +5490,7 @@
       </c>
       <c r="F65" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G65" s="30" t="s">
         <v>20</v>
@@ -5279,8 +5519,12 @@
       <c r="O65" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P65" s="42"/>
-      <c r="Q65" s="42"/>
+      <c r="P65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R65" s="42"/>
       <c r="S65" s="42"/>
       <c r="T65" s="42"/>
@@ -5312,7 +5556,7 @@
       </c>
       <c r="F66" s="39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G66" s="30" t="s">
         <v>20</v>
@@ -5341,8 +5585,12 @@
       <c r="O66" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P66" s="42"/>
-      <c r="Q66" s="42"/>
+      <c r="P66" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R66" s="42"/>
       <c r="S66" s="42"/>
       <c r="T66" s="42"/>
@@ -5374,7 +5622,7 @@
       </c>
       <c r="F67" s="39">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>21</v>
@@ -5403,8 +5651,12 @@
       <c r="O67" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="42"/>
+      <c r="P67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R67" s="42"/>
       <c r="S67" s="42"/>
       <c r="T67" s="42"/>
@@ -5436,7 +5688,7 @@
       </c>
       <c r="F68" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G68" s="30" t="s">
         <v>20</v>
@@ -5465,8 +5717,12 @@
       <c r="O68" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P68" s="42"/>
-      <c r="Q68" s="42"/>
+      <c r="P68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R68" s="42"/>
       <c r="S68" s="42"/>
       <c r="T68" s="42"/>
@@ -5498,7 +5754,7 @@
       </c>
       <c r="F69" s="39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G69" s="30" t="s">
         <v>20</v>
@@ -5527,8 +5783,12 @@
       <c r="O69" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P69" s="42"/>
-      <c r="Q69" s="42"/>
+      <c r="P69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R69" s="42"/>
       <c r="S69" s="42"/>
       <c r="T69" s="42"/>
@@ -5560,7 +5820,7 @@
       </c>
       <c r="F70" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G70" s="30" t="s">
         <v>20</v>
@@ -5589,8 +5849,12 @@
       <c r="O70" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P70" s="42"/>
-      <c r="Q70" s="42"/>
+      <c r="P70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R70" s="42"/>
       <c r="S70" s="42"/>
       <c r="T70" s="42"/>
@@ -5618,11 +5882,11 @@
       </c>
       <c r="E71" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G71" s="30" t="s">
         <v>20</v>
@@ -5651,8 +5915,12 @@
       <c r="O71" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P71" s="42"/>
-      <c r="Q71" s="42"/>
+      <c r="P71" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q71" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R71" s="42"/>
       <c r="S71" s="42"/>
       <c r="T71" s="42"/>
@@ -5684,7 +5952,7 @@
       </c>
       <c r="F72" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72" s="32" t="s">
         <v>21</v>
@@ -5704,7 +5972,7 @@
       <c r="L72" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M72" s="43" t="s">
+      <c r="M72" s="44" t="s">
         <v>21</v>
       </c>
       <c r="N72" s="32" t="s">
@@ -5713,8 +5981,12 @@
       <c r="O72" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P72" s="42"/>
-      <c r="Q72" s="42"/>
+      <c r="P72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R72" s="42"/>
       <c r="S72" s="42"/>
       <c r="T72" s="42"/>
@@ -5746,7 +6018,7 @@
       </c>
       <c r="F73" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G73" s="30" t="s">
         <v>20</v>
@@ -5775,8 +6047,12 @@
       <c r="O73" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="42"/>
-      <c r="Q73" s="42"/>
+      <c r="P73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R73" s="42"/>
       <c r="S73" s="42"/>
       <c r="T73" s="42"/>
@@ -5808,7 +6084,7 @@
       </c>
       <c r="F74" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G74" s="30" t="s">
         <v>20</v>
@@ -5837,8 +6113,12 @@
       <c r="O74" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P74" s="42"/>
-      <c r="Q74" s="42"/>
+      <c r="P74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R74" s="42"/>
       <c r="S74" s="42"/>
       <c r="T74" s="42"/>
@@ -5870,7 +6150,7 @@
       </c>
       <c r="F75" s="39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G75" s="32" t="s">
         <v>21</v>
@@ -5899,8 +6179,12 @@
       <c r="O75" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P75" s="42"/>
-      <c r="Q75" s="42"/>
+      <c r="P75" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R75" s="42"/>
       <c r="S75" s="42"/>
       <c r="T75" s="42"/>
@@ -5932,7 +6216,7 @@
       </c>
       <c r="F76" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G76" s="30" t="s">
         <v>20</v>
@@ -5961,8 +6245,12 @@
       <c r="O76" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P76" s="42"/>
-      <c r="Q76" s="42"/>
+      <c r="P76" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R76" s="42"/>
       <c r="S76" s="42"/>
       <c r="T76" s="42"/>
@@ -5994,7 +6282,7 @@
       </c>
       <c r="F77" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>20</v>
@@ -6023,8 +6311,12 @@
       <c r="O77" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P77" s="42"/>
-      <c r="Q77" s="42"/>
+      <c r="P77" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R77" s="42"/>
       <c r="S77" s="42"/>
       <c r="T77" s="42"/>
@@ -6056,7 +6348,7 @@
       </c>
       <c r="F78" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G78" s="30" t="s">
         <v>20</v>
@@ -6085,8 +6377,12 @@
       <c r="O78" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P78" s="42"/>
-      <c r="Q78" s="42"/>
+      <c r="P78" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R78" s="42"/>
       <c r="S78" s="42"/>
       <c r="T78" s="42"/>
@@ -6114,11 +6410,11 @@
       </c>
       <c r="E79" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G79" s="30" t="s">
         <v>20</v>
@@ -6147,8 +6443,12 @@
       <c r="O79" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P79" s="42"/>
-      <c r="Q79" s="42"/>
+      <c r="P79" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q79" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R79" s="42"/>
       <c r="S79" s="42"/>
       <c r="T79" s="42"/>
@@ -6180,7 +6480,7 @@
       </c>
       <c r="F80" s="39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G80" s="30" t="s">
         <v>20</v>
@@ -6209,8 +6509,12 @@
       <c r="O80" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P80" s="42"/>
-      <c r="Q80" s="42"/>
+      <c r="P80" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R80" s="42"/>
       <c r="S80" s="42"/>
       <c r="T80" s="42"/>
@@ -6242,7 +6546,7 @@
       </c>
       <c r="F81" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G81" s="32" t="s">
         <v>21</v>
@@ -6271,8 +6575,12 @@
       <c r="O81" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P81" s="42"/>
-      <c r="Q81" s="42"/>
+      <c r="P81" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q81" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R81" s="42"/>
       <c r="S81" s="42"/>
       <c r="T81" s="42"/>
@@ -6300,7 +6608,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G82" s="44"/>
+      <c r="G82" s="45"/>
       <c r="H82" s="42"/>
       <c r="I82" s="40"/>
       <c r="J82" s="31" t="s">
@@ -6317,8 +6625,8 @@
       </c>
       <c r="N82" s="42"/>
       <c r="O82" s="41"/>
-      <c r="P82" s="42"/>
-      <c r="Q82" s="42"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="31"/>
       <c r="R82" s="42"/>
       <c r="S82" s="42"/>
       <c r="T82" s="42"/>
@@ -6346,7 +6654,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83" s="44"/>
+      <c r="G83" s="45"/>
       <c r="H83" s="42"/>
       <c r="I83" s="40"/>
       <c r="J83" s="42"/>
@@ -6355,8 +6663,8 @@
       <c r="M83" s="42"/>
       <c r="N83" s="42"/>
       <c r="O83" s="33"/>
-      <c r="P83" s="42"/>
-      <c r="Q83" s="42"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="31"/>
       <c r="R83" s="42"/>
       <c r="S83" s="42"/>
       <c r="T83" s="42"/>
@@ -6384,7 +6692,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84" s="44"/>
+      <c r="G84" s="45"/>
       <c r="H84" s="42"/>
       <c r="I84" s="40"/>
       <c r="J84" s="42"/>
@@ -6393,7 +6701,7 @@
       <c r="M84" s="42"/>
       <c r="N84" s="42"/>
       <c r="O84" s="41"/>
-      <c r="P84" s="42"/>
+      <c r="P84" s="31"/>
       <c r="Q84" s="42"/>
       <c r="R84" s="42"/>
       <c r="S84" s="42"/>
@@ -6411,8 +6719,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
       <c r="D85" s="28"/>
       <c r="E85" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6422,7 +6730,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85" s="44"/>
+      <c r="G85" s="45"/>
       <c r="H85" s="42"/>
       <c r="I85" s="42"/>
       <c r="J85" s="42"/>
@@ -6431,7 +6739,7 @@
       <c r="M85" s="42"/>
       <c r="N85" s="42"/>
       <c r="O85" s="33"/>
-      <c r="P85" s="42"/>
+      <c r="P85" s="31"/>
       <c r="Q85" s="42"/>
       <c r="R85" s="42"/>
       <c r="S85" s="42"/>
@@ -6449,8 +6757,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B86" s="45"/>
-      <c r="C86" s="45"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
       <c r="D86" s="28"/>
       <c r="E86" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6460,7 +6768,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G86" s="44"/>
+      <c r="G86" s="45"/>
       <c r="H86" s="42"/>
       <c r="I86" s="42"/>
       <c r="J86" s="42"/>
@@ -6469,7 +6777,7 @@
       <c r="M86" s="42"/>
       <c r="N86" s="42"/>
       <c r="O86" s="41"/>
-      <c r="P86" s="42"/>
+      <c r="P86" s="31"/>
       <c r="Q86" s="42"/>
       <c r="R86" s="42"/>
       <c r="S86" s="42"/>
@@ -6487,8 +6795,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6498,7 +6806,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87" s="44"/>
+      <c r="G87" s="45"/>
       <c r="H87" s="42"/>
       <c r="I87" s="42"/>
       <c r="J87" s="42"/>
@@ -6507,7 +6815,7 @@
       <c r="M87" s="42"/>
       <c r="N87" s="42"/>
       <c r="O87" s="33"/>
-      <c r="P87" s="42"/>
+      <c r="P87" s="31"/>
       <c r="Q87" s="42"/>
       <c r="R87" s="42"/>
       <c r="S87" s="42"/>
@@ -6525,8 +6833,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="46"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6536,7 +6844,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88" s="44"/>
+      <c r="G88" s="45"/>
       <c r="H88" s="42"/>
       <c r="I88" s="42"/>
       <c r="J88" s="42"/>
@@ -6545,7 +6853,7 @@
       <c r="M88" s="42"/>
       <c r="N88" s="42"/>
       <c r="O88" s="41"/>
-      <c r="P88" s="42"/>
+      <c r="P88" s="31"/>
       <c r="Q88" s="42"/>
       <c r="R88" s="42"/>
       <c r="S88" s="42"/>
@@ -6563,8 +6871,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6574,7 +6882,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89" s="44"/>
+      <c r="G89" s="45"/>
       <c r="H89" s="42"/>
       <c r="I89" s="42"/>
       <c r="J89" s="42"/>
@@ -6583,7 +6891,7 @@
       <c r="M89" s="42"/>
       <c r="N89" s="42"/>
       <c r="O89" s="33"/>
-      <c r="P89" s="42"/>
+      <c r="P89" s="31"/>
       <c r="Q89" s="42"/>
       <c r="R89" s="42"/>
       <c r="S89" s="42"/>
@@ -6601,8 +6909,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6612,7 +6920,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90" s="44"/>
+      <c r="G90" s="45"/>
       <c r="H90" s="42"/>
       <c r="I90" s="42"/>
       <c r="J90" s="42"/>
@@ -6621,7 +6929,7 @@
       <c r="M90" s="42"/>
       <c r="N90" s="42"/>
       <c r="O90" s="41"/>
-      <c r="P90" s="42"/>
+      <c r="P90" s="31"/>
       <c r="Q90" s="42"/>
       <c r="R90" s="42"/>
       <c r="S90" s="42"/>
@@ -6639,8 +6947,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B91" s="45"/>
-      <c r="C91" s="45"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="46"/>
       <c r="D91" s="28"/>
       <c r="E91" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6650,7 +6958,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91" s="44"/>
+      <c r="G91" s="45"/>
       <c r="H91" s="42"/>
       <c r="I91" s="42"/>
       <c r="J91" s="42"/>
@@ -6677,8 +6985,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B92" s="45"/>
-      <c r="C92" s="45"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6688,7 +6996,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G92" s="44"/>
+      <c r="G92" s="45"/>
       <c r="H92" s="42"/>
       <c r="I92" s="42"/>
       <c r="J92" s="42"/>
@@ -6715,8 +7023,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
       <c r="D93" s="28"/>
       <c r="E93" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6726,7 +7034,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93" s="44"/>
+      <c r="G93" s="45"/>
       <c r="H93" s="42"/>
       <c r="I93" s="42"/>
       <c r="J93" s="42"/>
@@ -6753,8 +7061,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="46"/>
       <c r="D94" s="28"/>
       <c r="E94" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6764,7 +7072,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94" s="44"/>
+      <c r="G94" s="45"/>
       <c r="H94" s="42"/>
       <c r="I94" s="42"/>
       <c r="J94" s="42"/>
@@ -6791,8 +7099,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="46"/>
       <c r="D95" s="28"/>
       <c r="E95" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6802,7 +7110,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95" s="44"/>
+      <c r="G95" s="45"/>
       <c r="H95" s="42"/>
       <c r="I95" s="42"/>
       <c r="J95" s="42"/>
@@ -6825,2719 +7133,2719 @@
       <c r="AA95" s="42"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="O96" s="46"/>
+      <c r="O96" s="47"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="O97" s="46"/>
+      <c r="O97" s="47"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="O98" s="46"/>
+      <c r="O98" s="47"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="O99" s="46"/>
+      <c r="O99" s="47"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="O100" s="46"/>
+      <c r="O100" s="47"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="O101" s="47"/>
+      <c r="O101" s="48"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="O102" s="47"/>
+      <c r="O102" s="48"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="O103" s="47"/>
+      <c r="O103" s="48"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="O104" s="47"/>
+      <c r="O104" s="48"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="O105" s="47"/>
+      <c r="O105" s="48"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="O106" s="47"/>
+      <c r="O106" s="48"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="O107" s="47"/>
+      <c r="O107" s="48"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="O108" s="47"/>
+      <c r="O108" s="48"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="O109" s="47"/>
+      <c r="O109" s="48"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="O110" s="47"/>
+      <c r="O110" s="48"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="O111" s="47"/>
+      <c r="O111" s="48"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="O112" s="47"/>
+      <c r="O112" s="48"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="O113" s="47"/>
+      <c r="O113" s="48"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="O114" s="47"/>
+      <c r="O114" s="48"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="O115" s="47"/>
+      <c r="O115" s="48"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="O116" s="47"/>
+      <c r="O116" s="48"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="O117" s="47"/>
+      <c r="O117" s="48"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="O118" s="47"/>
+      <c r="O118" s="48"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="O119" s="47"/>
+      <c r="O119" s="48"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="O120" s="47"/>
+      <c r="O120" s="48"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="O121" s="47"/>
+      <c r="O121" s="48"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="O122" s="47"/>
+      <c r="O122" s="48"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="O123" s="47"/>
+      <c r="O123" s="48"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="O124" s="47"/>
+      <c r="O124" s="48"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="O125" s="47"/>
+      <c r="O125" s="48"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="O126" s="47"/>
+      <c r="O126" s="48"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="O127" s="47"/>
+      <c r="O127" s="48"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="O128" s="47"/>
+      <c r="O128" s="48"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="O129" s="47"/>
+      <c r="O129" s="48"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="O130" s="47"/>
+      <c r="O130" s="48"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="O131" s="47"/>
+      <c r="O131" s="48"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="O132" s="47"/>
+      <c r="O132" s="48"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="O133" s="47"/>
+      <c r="O133" s="48"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="O134" s="47"/>
+      <c r="O134" s="48"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="O135" s="47"/>
+      <c r="O135" s="48"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="O136" s="47"/>
+      <c r="O136" s="48"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="O137" s="47"/>
+      <c r="O137" s="48"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="O138" s="47"/>
+      <c r="O138" s="48"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="O139" s="47"/>
+      <c r="O139" s="48"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="O140" s="47"/>
+      <c r="O140" s="48"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="O141" s="47"/>
+      <c r="O141" s="48"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="O142" s="47"/>
+      <c r="O142" s="48"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="O143" s="47"/>
+      <c r="O143" s="48"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="O144" s="47"/>
+      <c r="O144" s="48"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="O145" s="47"/>
+      <c r="O145" s="48"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="O146" s="47"/>
+      <c r="O146" s="48"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="O147" s="47"/>
+      <c r="O147" s="48"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="O148" s="47"/>
+      <c r="O148" s="48"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="O149" s="47"/>
+      <c r="O149" s="48"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="O150" s="47"/>
+      <c r="O150" s="48"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="O151" s="47"/>
+      <c r="O151" s="48"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="O152" s="47"/>
+      <c r="O152" s="48"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="O153" s="47"/>
+      <c r="O153" s="48"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="O154" s="47"/>
+      <c r="O154" s="48"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="O155" s="47"/>
+      <c r="O155" s="48"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="O156" s="47"/>
+      <c r="O156" s="48"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="O157" s="47"/>
+      <c r="O157" s="48"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="O158" s="47"/>
+      <c r="O158" s="48"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="O159" s="47"/>
+      <c r="O159" s="48"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="O160" s="47"/>
+      <c r="O160" s="48"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="O161" s="47"/>
+      <c r="O161" s="48"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="O162" s="47"/>
+      <c r="O162" s="48"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="O163" s="47"/>
+      <c r="O163" s="48"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="O164" s="47"/>
+      <c r="O164" s="48"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="O165" s="47"/>
+      <c r="O165" s="48"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="O166" s="47"/>
+      <c r="O166" s="48"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="O167" s="47"/>
+      <c r="O167" s="48"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="O168" s="47"/>
+      <c r="O168" s="48"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="O169" s="47"/>
+      <c r="O169" s="48"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="O170" s="47"/>
+      <c r="O170" s="48"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="O171" s="47"/>
+      <c r="O171" s="48"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="O172" s="47"/>
+      <c r="O172" s="48"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="O173" s="47"/>
+      <c r="O173" s="48"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="O174" s="47"/>
+      <c r="O174" s="48"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="O175" s="47"/>
+      <c r="O175" s="48"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="O176" s="47"/>
+      <c r="O176" s="48"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="O177" s="47"/>
+      <c r="O177" s="48"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="O178" s="47"/>
+      <c r="O178" s="48"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="O179" s="47"/>
+      <c r="O179" s="48"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="O180" s="47"/>
+      <c r="O180" s="48"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="O181" s="47"/>
+      <c r="O181" s="48"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="O182" s="47"/>
+      <c r="O182" s="48"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="O183" s="47"/>
+      <c r="O183" s="48"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="O184" s="47"/>
+      <c r="O184" s="48"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="O185" s="47"/>
+      <c r="O185" s="48"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="O186" s="47"/>
+      <c r="O186" s="48"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="O187" s="47"/>
+      <c r="O187" s="48"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="O188" s="47"/>
+      <c r="O188" s="48"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="O189" s="47"/>
+      <c r="O189" s="48"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="O190" s="47"/>
+      <c r="O190" s="48"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="O191" s="47"/>
+      <c r="O191" s="48"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="O192" s="47"/>
+      <c r="O192" s="48"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="O193" s="47"/>
+      <c r="O193" s="48"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="O194" s="47"/>
+      <c r="O194" s="48"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="O195" s="47"/>
+      <c r="O195" s="48"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="O196" s="47"/>
+      <c r="O196" s="48"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="O197" s="47"/>
+      <c r="O197" s="48"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="O198" s="47"/>
+      <c r="O198" s="48"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="O199" s="47"/>
+      <c r="O199" s="48"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="O200" s="47"/>
+      <c r="O200" s="48"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="O201" s="47"/>
+      <c r="O201" s="48"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="O202" s="47"/>
+      <c r="O202" s="48"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="O203" s="47"/>
+      <c r="O203" s="48"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="O204" s="47"/>
+      <c r="O204" s="48"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="O205" s="47"/>
+      <c r="O205" s="48"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="O206" s="47"/>
+      <c r="O206" s="48"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="O207" s="47"/>
+      <c r="O207" s="48"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="O208" s="47"/>
+      <c r="O208" s="48"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="O209" s="47"/>
+      <c r="O209" s="48"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="O210" s="47"/>
+      <c r="O210" s="48"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="O211" s="47"/>
+      <c r="O211" s="48"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="O212" s="47"/>
+      <c r="O212" s="48"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="O213" s="47"/>
+      <c r="O213" s="48"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="O214" s="47"/>
+      <c r="O214" s="48"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="O215" s="47"/>
+      <c r="O215" s="48"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="O216" s="47"/>
+      <c r="O216" s="48"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="O217" s="47"/>
+      <c r="O217" s="48"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="O218" s="47"/>
+      <c r="O218" s="48"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="O219" s="47"/>
+      <c r="O219" s="48"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="O220" s="47"/>
+      <c r="O220" s="48"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="O221" s="47"/>
+      <c r="O221" s="48"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="O222" s="47"/>
+      <c r="O222" s="48"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="O223" s="47"/>
+      <c r="O223" s="48"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="O224" s="47"/>
+      <c r="O224" s="48"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="O225" s="47"/>
+      <c r="O225" s="48"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="O226" s="47"/>
+      <c r="O226" s="48"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="O227" s="47"/>
+      <c r="O227" s="48"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="O228" s="47"/>
+      <c r="O228" s="48"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="O229" s="47"/>
+      <c r="O229" s="48"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="O230" s="47"/>
+      <c r="O230" s="48"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="O231" s="47"/>
+      <c r="O231" s="48"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="O232" s="47"/>
+      <c r="O232" s="48"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="O233" s="47"/>
+      <c r="O233" s="48"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="O234" s="47"/>
+      <c r="O234" s="48"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="O235" s="47"/>
+      <c r="O235" s="48"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="O236" s="47"/>
+      <c r="O236" s="48"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="O237" s="47"/>
+      <c r="O237" s="48"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="O238" s="47"/>
+      <c r="O238" s="48"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="O239" s="47"/>
+      <c r="O239" s="48"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="O240" s="47"/>
+      <c r="O240" s="48"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="O241" s="47"/>
+      <c r="O241" s="48"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="O242" s="47"/>
+      <c r="O242" s="48"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="O243" s="47"/>
+      <c r="O243" s="48"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="O244" s="47"/>
+      <c r="O244" s="48"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="O245" s="47"/>
+      <c r="O245" s="48"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="O246" s="47"/>
+      <c r="O246" s="48"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="O247" s="47"/>
+      <c r="O247" s="48"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="O248" s="47"/>
+      <c r="O248" s="48"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="O249" s="47"/>
+      <c r="O249" s="48"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="O250" s="47"/>
+      <c r="O250" s="48"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="O251" s="47"/>
+      <c r="O251" s="48"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="O252" s="47"/>
+      <c r="O252" s="48"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="O253" s="47"/>
+      <c r="O253" s="48"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="O254" s="47"/>
+      <c r="O254" s="48"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="O255" s="47"/>
+      <c r="O255" s="48"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="O256" s="47"/>
+      <c r="O256" s="48"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="O257" s="47"/>
+      <c r="O257" s="48"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="O258" s="47"/>
+      <c r="O258" s="48"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="O259" s="47"/>
+      <c r="O259" s="48"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="O260" s="47"/>
+      <c r="O260" s="48"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="O261" s="47"/>
+      <c r="O261" s="48"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="O262" s="47"/>
+      <c r="O262" s="48"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="O263" s="47"/>
+      <c r="O263" s="48"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="O264" s="47"/>
+      <c r="O264" s="48"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="O265" s="47"/>
+      <c r="O265" s="48"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="O266" s="47"/>
+      <c r="O266" s="48"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="O267" s="47"/>
+      <c r="O267" s="48"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="O268" s="47"/>
+      <c r="O268" s="48"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="O269" s="47"/>
+      <c r="O269" s="48"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="O270" s="47"/>
+      <c r="O270" s="48"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="O271" s="47"/>
+      <c r="O271" s="48"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="O272" s="47"/>
+      <c r="O272" s="48"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="O273" s="47"/>
+      <c r="O273" s="48"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="O274" s="47"/>
+      <c r="O274" s="48"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="O275" s="47"/>
+      <c r="O275" s="48"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="O276" s="47"/>
+      <c r="O276" s="48"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="O277" s="47"/>
+      <c r="O277" s="48"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="O278" s="47"/>
+      <c r="O278" s="48"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="O279" s="47"/>
+      <c r="O279" s="48"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="O280" s="47"/>
+      <c r="O280" s="48"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="O281" s="47"/>
+      <c r="O281" s="48"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="O282" s="47"/>
+      <c r="O282" s="48"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="O283" s="47"/>
+      <c r="O283" s="48"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="O284" s="47"/>
+      <c r="O284" s="48"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="O285" s="47"/>
+      <c r="O285" s="48"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="O286" s="47"/>
+      <c r="O286" s="48"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="O287" s="47"/>
+      <c r="O287" s="48"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="O288" s="47"/>
+      <c r="O288" s="48"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="O289" s="47"/>
+      <c r="O289" s="48"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="O290" s="47"/>
+      <c r="O290" s="48"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="O291" s="47"/>
+      <c r="O291" s="48"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="O292" s="47"/>
+      <c r="O292" s="48"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="O293" s="47"/>
+      <c r="O293" s="48"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="O294" s="47"/>
+      <c r="O294" s="48"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="O295" s="47"/>
+      <c r="O295" s="48"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="O296" s="47"/>
+      <c r="O296" s="48"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="O297" s="47"/>
+      <c r="O297" s="48"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="O298" s="47"/>
+      <c r="O298" s="48"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="O299" s="47"/>
+      <c r="O299" s="48"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="O300" s="47"/>
+      <c r="O300" s="48"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="O301" s="47"/>
+      <c r="O301" s="48"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="O302" s="47"/>
+      <c r="O302" s="48"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="O303" s="47"/>
+      <c r="O303" s="48"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="O304" s="47"/>
+      <c r="O304" s="48"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="O305" s="47"/>
+      <c r="O305" s="48"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="O306" s="47"/>
+      <c r="O306" s="48"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="O307" s="47"/>
+      <c r="O307" s="48"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="O308" s="47"/>
+      <c r="O308" s="48"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="O309" s="47"/>
+      <c r="O309" s="48"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="O310" s="47"/>
+      <c r="O310" s="48"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="O311" s="47"/>
+      <c r="O311" s="48"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="O312" s="47"/>
+      <c r="O312" s="48"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="O313" s="47"/>
+      <c r="O313" s="48"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="O314" s="47"/>
+      <c r="O314" s="48"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="O315" s="47"/>
+      <c r="O315" s="48"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="O316" s="47"/>
+      <c r="O316" s="48"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="O317" s="47"/>
+      <c r="O317" s="48"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="O318" s="47"/>
+      <c r="O318" s="48"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="O319" s="47"/>
+      <c r="O319" s="48"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="O320" s="47"/>
+      <c r="O320" s="48"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="O321" s="47"/>
+      <c r="O321" s="48"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="O322" s="47"/>
+      <c r="O322" s="48"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="O323" s="47"/>
+      <c r="O323" s="48"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="O324" s="47"/>
+      <c r="O324" s="48"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="O325" s="47"/>
+      <c r="O325" s="48"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="O326" s="47"/>
+      <c r="O326" s="48"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="O327" s="47"/>
+      <c r="O327" s="48"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="O328" s="47"/>
+      <c r="O328" s="48"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="O329" s="47"/>
+      <c r="O329" s="48"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="O330" s="47"/>
+      <c r="O330" s="48"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="O331" s="47"/>
+      <c r="O331" s="48"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="O332" s="47"/>
+      <c r="O332" s="48"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="O333" s="47"/>
+      <c r="O333" s="48"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="O334" s="47"/>
+      <c r="O334" s="48"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="O335" s="47"/>
+      <c r="O335" s="48"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="O336" s="47"/>
+      <c r="O336" s="48"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="O337" s="47"/>
+      <c r="O337" s="48"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="O338" s="47"/>
+      <c r="O338" s="48"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="O339" s="47"/>
+      <c r="O339" s="48"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="O340" s="47"/>
+      <c r="O340" s="48"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="O341" s="47"/>
+      <c r="O341" s="48"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="O342" s="47"/>
+      <c r="O342" s="48"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="O343" s="47"/>
+      <c r="O343" s="48"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="O344" s="47"/>
+      <c r="O344" s="48"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="O345" s="47"/>
+      <c r="O345" s="48"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="O346" s="47"/>
+      <c r="O346" s="48"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="O347" s="47"/>
+      <c r="O347" s="48"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="O348" s="47"/>
+      <c r="O348" s="48"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="O349" s="47"/>
+      <c r="O349" s="48"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="O350" s="47"/>
+      <c r="O350" s="48"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="O351" s="47"/>
+      <c r="O351" s="48"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="O352" s="47"/>
+      <c r="O352" s="48"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="O353" s="47"/>
+      <c r="O353" s="48"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="O354" s="47"/>
+      <c r="O354" s="48"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="O355" s="47"/>
+      <c r="O355" s="48"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="O356" s="47"/>
+      <c r="O356" s="48"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="O357" s="47"/>
+      <c r="O357" s="48"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="O358" s="47"/>
+      <c r="O358" s="48"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="O359" s="47"/>
+      <c r="O359" s="48"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="O360" s="47"/>
+      <c r="O360" s="48"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="O361" s="47"/>
+      <c r="O361" s="48"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="O362" s="47"/>
+      <c r="O362" s="48"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="O363" s="47"/>
+      <c r="O363" s="48"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="O364" s="47"/>
+      <c r="O364" s="48"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="O365" s="47"/>
+      <c r="O365" s="48"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="O366" s="47"/>
+      <c r="O366" s="48"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="O367" s="47"/>
+      <c r="O367" s="48"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="O368" s="47"/>
+      <c r="O368" s="48"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="O369" s="47"/>
+      <c r="O369" s="48"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="O370" s="47"/>
+      <c r="O370" s="48"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="O371" s="47"/>
+      <c r="O371" s="48"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="O372" s="47"/>
+      <c r="O372" s="48"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="O373" s="47"/>
+      <c r="O373" s="48"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="O374" s="47"/>
+      <c r="O374" s="48"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="O375" s="47"/>
+      <c r="O375" s="48"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="O376" s="47"/>
+      <c r="O376" s="48"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="O377" s="47"/>
+      <c r="O377" s="48"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="O378" s="47"/>
+      <c r="O378" s="48"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="O379" s="47"/>
+      <c r="O379" s="48"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="O380" s="47"/>
+      <c r="O380" s="48"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="O381" s="47"/>
+      <c r="O381" s="48"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="O382" s="47"/>
+      <c r="O382" s="48"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="O383" s="47"/>
+      <c r="O383" s="48"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="O384" s="47"/>
+      <c r="O384" s="48"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="O385" s="47"/>
+      <c r="O385" s="48"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="O386" s="47"/>
+      <c r="O386" s="48"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="O387" s="47"/>
+      <c r="O387" s="48"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="O388" s="47"/>
+      <c r="O388" s="48"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="O389" s="47"/>
+      <c r="O389" s="48"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="O390" s="47"/>
+      <c r="O390" s="48"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="O391" s="47"/>
+      <c r="O391" s="48"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="O392" s="47"/>
+      <c r="O392" s="48"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="O393" s="47"/>
+      <c r="O393" s="48"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="O394" s="47"/>
+      <c r="O394" s="48"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="O395" s="47"/>
+      <c r="O395" s="48"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="O396" s="47"/>
+      <c r="O396" s="48"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="O397" s="47"/>
+      <c r="O397" s="48"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="O398" s="47"/>
+      <c r="O398" s="48"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="O399" s="47"/>
+      <c r="O399" s="48"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="O400" s="47"/>
+      <c r="O400" s="48"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="O401" s="47"/>
+      <c r="O401" s="48"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="O402" s="47"/>
+      <c r="O402" s="48"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="O403" s="47"/>
+      <c r="O403" s="48"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="O404" s="47"/>
+      <c r="O404" s="48"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="O405" s="47"/>
+      <c r="O405" s="48"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="O406" s="47"/>
+      <c r="O406" s="48"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="O407" s="47"/>
+      <c r="O407" s="48"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="O408" s="47"/>
+      <c r="O408" s="48"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="O409" s="47"/>
+      <c r="O409" s="48"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="O410" s="47"/>
+      <c r="O410" s="48"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="O411" s="47"/>
+      <c r="O411" s="48"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="O412" s="47"/>
+      <c r="O412" s="48"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="O413" s="47"/>
+      <c r="O413" s="48"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="O414" s="47"/>
+      <c r="O414" s="48"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="O415" s="47"/>
+      <c r="O415" s="48"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="O416" s="47"/>
+      <c r="O416" s="48"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="O417" s="47"/>
+      <c r="O417" s="48"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="O418" s="47"/>
+      <c r="O418" s="48"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="O419" s="47"/>
+      <c r="O419" s="48"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="O420" s="47"/>
+      <c r="O420" s="48"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="O421" s="47"/>
+      <c r="O421" s="48"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="O422" s="47"/>
+      <c r="O422" s="48"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="O423" s="47"/>
+      <c r="O423" s="48"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="O424" s="47"/>
+      <c r="O424" s="48"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="O425" s="47"/>
+      <c r="O425" s="48"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="O426" s="47"/>
+      <c r="O426" s="48"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="O427" s="47"/>
+      <c r="O427" s="48"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="O428" s="47"/>
+      <c r="O428" s="48"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="O429" s="47"/>
+      <c r="O429" s="48"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="O430" s="47"/>
+      <c r="O430" s="48"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="O431" s="47"/>
+      <c r="O431" s="48"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="O432" s="47"/>
+      <c r="O432" s="48"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="O433" s="47"/>
+      <c r="O433" s="48"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="O434" s="47"/>
+      <c r="O434" s="48"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="O435" s="47"/>
+      <c r="O435" s="48"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="O436" s="47"/>
+      <c r="O436" s="48"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="O437" s="47"/>
+      <c r="O437" s="48"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="O438" s="47"/>
+      <c r="O438" s="48"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="O439" s="47"/>
+      <c r="O439" s="48"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="O440" s="47"/>
+      <c r="O440" s="48"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="O441" s="47"/>
+      <c r="O441" s="48"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="O442" s="47"/>
+      <c r="O442" s="48"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="O443" s="47"/>
+      <c r="O443" s="48"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="O444" s="47"/>
+      <c r="O444" s="48"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="O445" s="47"/>
+      <c r="O445" s="48"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="O446" s="47"/>
+      <c r="O446" s="48"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="O447" s="47"/>
+      <c r="O447" s="48"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="O448" s="47"/>
+      <c r="O448" s="48"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="O449" s="47"/>
+      <c r="O449" s="48"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="O450" s="47"/>
+      <c r="O450" s="48"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="O451" s="47"/>
+      <c r="O451" s="48"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="O452" s="47"/>
+      <c r="O452" s="48"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="O453" s="47"/>
+      <c r="O453" s="48"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="O454" s="47"/>
+      <c r="O454" s="48"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="O455" s="47"/>
+      <c r="O455" s="48"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="O456" s="47"/>
+      <c r="O456" s="48"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="O457" s="47"/>
+      <c r="O457" s="48"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="O458" s="47"/>
+      <c r="O458" s="48"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="O459" s="47"/>
+      <c r="O459" s="48"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="O460" s="47"/>
+      <c r="O460" s="48"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="O461" s="47"/>
+      <c r="O461" s="48"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="O462" s="47"/>
+      <c r="O462" s="48"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="O463" s="47"/>
+      <c r="O463" s="48"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="O464" s="47"/>
+      <c r="O464" s="48"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="O465" s="47"/>
+      <c r="O465" s="48"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="O466" s="47"/>
+      <c r="O466" s="48"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="O467" s="47"/>
+      <c r="O467" s="48"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="O468" s="47"/>
+      <c r="O468" s="48"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="O469" s="47"/>
+      <c r="O469" s="48"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="O470" s="47"/>
+      <c r="O470" s="48"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="O471" s="47"/>
+      <c r="O471" s="48"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="O472" s="47"/>
+      <c r="O472" s="48"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="O473" s="47"/>
+      <c r="O473" s="48"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="O474" s="47"/>
+      <c r="O474" s="48"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="O475" s="47"/>
+      <c r="O475" s="48"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="O476" s="47"/>
+      <c r="O476" s="48"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="O477" s="47"/>
+      <c r="O477" s="48"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="O478" s="47"/>
+      <c r="O478" s="48"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="O479" s="47"/>
+      <c r="O479" s="48"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="O480" s="47"/>
+      <c r="O480" s="48"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="O481" s="47"/>
+      <c r="O481" s="48"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="O482" s="47"/>
+      <c r="O482" s="48"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="O483" s="47"/>
+      <c r="O483" s="48"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="O484" s="47"/>
+      <c r="O484" s="48"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="O485" s="47"/>
+      <c r="O485" s="48"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="O486" s="47"/>
+      <c r="O486" s="48"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="O487" s="47"/>
+      <c r="O487" s="48"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="O488" s="47"/>
+      <c r="O488" s="48"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="O489" s="47"/>
+      <c r="O489" s="48"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="O490" s="47"/>
+      <c r="O490" s="48"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="O491" s="47"/>
+      <c r="O491" s="48"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="O492" s="47"/>
+      <c r="O492" s="48"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="O493" s="47"/>
+      <c r="O493" s="48"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="O494" s="47"/>
+      <c r="O494" s="48"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="O495" s="47"/>
+      <c r="O495" s="48"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="O496" s="47"/>
+      <c r="O496" s="48"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="O497" s="47"/>
+      <c r="O497" s="48"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="O498" s="47"/>
+      <c r="O498" s="48"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="O499" s="47"/>
+      <c r="O499" s="48"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="O500" s="47"/>
+      <c r="O500" s="48"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="O501" s="47"/>
+      <c r="O501" s="48"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="O502" s="47"/>
+      <c r="O502" s="48"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="O503" s="47"/>
+      <c r="O503" s="48"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="O504" s="47"/>
+      <c r="O504" s="48"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="O505" s="47"/>
+      <c r="O505" s="48"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="O506" s="47"/>
+      <c r="O506" s="48"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="O507" s="47"/>
+      <c r="O507" s="48"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="O508" s="47"/>
+      <c r="O508" s="48"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="O509" s="47"/>
+      <c r="O509" s="48"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="O510" s="47"/>
+      <c r="O510" s="48"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="O511" s="47"/>
+      <c r="O511" s="48"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="O512" s="47"/>
+      <c r="O512" s="48"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="O513" s="47"/>
+      <c r="O513" s="48"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="O514" s="47"/>
+      <c r="O514" s="48"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="O515" s="47"/>
+      <c r="O515" s="48"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="O516" s="47"/>
+      <c r="O516" s="48"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="O517" s="47"/>
+      <c r="O517" s="48"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="O518" s="47"/>
+      <c r="O518" s="48"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="O519" s="47"/>
+      <c r="O519" s="48"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="O520" s="47"/>
+      <c r="O520" s="48"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="O521" s="47"/>
+      <c r="O521" s="48"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="O522" s="47"/>
+      <c r="O522" s="48"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="O523" s="47"/>
+      <c r="O523" s="48"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="O524" s="47"/>
+      <c r="O524" s="48"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="O525" s="47"/>
+      <c r="O525" s="48"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="O526" s="47"/>
+      <c r="O526" s="48"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="O527" s="47"/>
+      <c r="O527" s="48"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="O528" s="47"/>
+      <c r="O528" s="48"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="O529" s="47"/>
+      <c r="O529" s="48"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="O530" s="47"/>
+      <c r="O530" s="48"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="O531" s="47"/>
+      <c r="O531" s="48"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="O532" s="47"/>
+      <c r="O532" s="48"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="O533" s="47"/>
+      <c r="O533" s="48"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="O534" s="47"/>
+      <c r="O534" s="48"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="O535" s="47"/>
+      <c r="O535" s="48"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="O536" s="47"/>
+      <c r="O536" s="48"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="O537" s="47"/>
+      <c r="O537" s="48"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="O538" s="47"/>
+      <c r="O538" s="48"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="O539" s="47"/>
+      <c r="O539" s="48"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="O540" s="47"/>
+      <c r="O540" s="48"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="O541" s="47"/>
+      <c r="O541" s="48"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="O542" s="47"/>
+      <c r="O542" s="48"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="O543" s="47"/>
+      <c r="O543" s="48"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="O544" s="47"/>
+      <c r="O544" s="48"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="O545" s="47"/>
+      <c r="O545" s="48"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="O546" s="47"/>
+      <c r="O546" s="48"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="O547" s="47"/>
+      <c r="O547" s="48"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="O548" s="47"/>
+      <c r="O548" s="48"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="O549" s="47"/>
+      <c r="O549" s="48"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="O550" s="47"/>
+      <c r="O550" s="48"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="O551" s="47"/>
+      <c r="O551" s="48"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="O552" s="47"/>
+      <c r="O552" s="48"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="O553" s="47"/>
+      <c r="O553" s="48"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="O554" s="47"/>
+      <c r="O554" s="48"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="O555" s="47"/>
+      <c r="O555" s="48"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="O556" s="47"/>
+      <c r="O556" s="48"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="O557" s="47"/>
+      <c r="O557" s="48"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="O558" s="47"/>
+      <c r="O558" s="48"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="O559" s="47"/>
+      <c r="O559" s="48"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="O560" s="47"/>
+      <c r="O560" s="48"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="O561" s="47"/>
+      <c r="O561" s="48"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="O562" s="47"/>
+      <c r="O562" s="48"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="O563" s="47"/>
+      <c r="O563" s="48"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="O564" s="47"/>
+      <c r="O564" s="48"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="O565" s="47"/>
+      <c r="O565" s="48"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="O566" s="47"/>
+      <c r="O566" s="48"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="O567" s="47"/>
+      <c r="O567" s="48"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="O568" s="47"/>
+      <c r="O568" s="48"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="O569" s="47"/>
+      <c r="O569" s="48"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="O570" s="47"/>
+      <c r="O570" s="48"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="O571" s="47"/>
+      <c r="O571" s="48"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="O572" s="47"/>
+      <c r="O572" s="48"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="O573" s="47"/>
+      <c r="O573" s="48"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="O574" s="47"/>
+      <c r="O574" s="48"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="O575" s="47"/>
+      <c r="O575" s="48"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="O576" s="47"/>
+      <c r="O576" s="48"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="O577" s="47"/>
+      <c r="O577" s="48"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="O578" s="47"/>
+      <c r="O578" s="48"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="O579" s="47"/>
+      <c r="O579" s="48"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="O580" s="47"/>
+      <c r="O580" s="48"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="O581" s="47"/>
+      <c r="O581" s="48"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="O582" s="47"/>
+      <c r="O582" s="48"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="O583" s="47"/>
+      <c r="O583" s="48"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="O584" s="47"/>
+      <c r="O584" s="48"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="O585" s="47"/>
+      <c r="O585" s="48"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="O586" s="47"/>
+      <c r="O586" s="48"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="O587" s="47"/>
+      <c r="O587" s="48"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="O588" s="47"/>
+      <c r="O588" s="48"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="O589" s="47"/>
+      <c r="O589" s="48"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="O590" s="47"/>
+      <c r="O590" s="48"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="O591" s="47"/>
+      <c r="O591" s="48"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="O592" s="47"/>
+      <c r="O592" s="48"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="O593" s="47"/>
+      <c r="O593" s="48"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="O594" s="47"/>
+      <c r="O594" s="48"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="O595" s="47"/>
+      <c r="O595" s="48"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="O596" s="47"/>
+      <c r="O596" s="48"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="O597" s="47"/>
+      <c r="O597" s="48"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="O598" s="47"/>
+      <c r="O598" s="48"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="O599" s="47"/>
+      <c r="O599" s="48"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="O600" s="47"/>
+      <c r="O600" s="48"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="O601" s="47"/>
+      <c r="O601" s="48"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="O602" s="47"/>
+      <c r="O602" s="48"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="O603" s="47"/>
+      <c r="O603" s="48"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="O604" s="47"/>
+      <c r="O604" s="48"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="O605" s="47"/>
+      <c r="O605" s="48"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="O606" s="47"/>
+      <c r="O606" s="48"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="O607" s="47"/>
+      <c r="O607" s="48"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="O608" s="47"/>
+      <c r="O608" s="48"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="O609" s="47"/>
+      <c r="O609" s="48"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="O610" s="47"/>
+      <c r="O610" s="48"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="O611" s="47"/>
+      <c r="O611" s="48"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="O612" s="47"/>
+      <c r="O612" s="48"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="O613" s="47"/>
+      <c r="O613" s="48"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="O614" s="47"/>
+      <c r="O614" s="48"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="O615" s="47"/>
+      <c r="O615" s="48"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="O616" s="47"/>
+      <c r="O616" s="48"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="O617" s="47"/>
+      <c r="O617" s="48"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="O618" s="47"/>
+      <c r="O618" s="48"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="O619" s="47"/>
+      <c r="O619" s="48"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="O620" s="47"/>
+      <c r="O620" s="48"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="O621" s="47"/>
+      <c r="O621" s="48"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="O622" s="47"/>
+      <c r="O622" s="48"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="O623" s="47"/>
+      <c r="O623" s="48"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="O624" s="47"/>
+      <c r="O624" s="48"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="O625" s="47"/>
+      <c r="O625" s="48"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="O626" s="47"/>
+      <c r="O626" s="48"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="O627" s="47"/>
+      <c r="O627" s="48"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="O628" s="47"/>
+      <c r="O628" s="48"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="O629" s="47"/>
+      <c r="O629" s="48"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="O630" s="47"/>
+      <c r="O630" s="48"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="O631" s="47"/>
+      <c r="O631" s="48"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="O632" s="47"/>
+      <c r="O632" s="48"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="O633" s="47"/>
+      <c r="O633" s="48"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="O634" s="47"/>
+      <c r="O634" s="48"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="O635" s="47"/>
+      <c r="O635" s="48"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="O636" s="47"/>
+      <c r="O636" s="48"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="O637" s="47"/>
+      <c r="O637" s="48"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="O638" s="47"/>
+      <c r="O638" s="48"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="O639" s="47"/>
+      <c r="O639" s="48"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="O640" s="47"/>
+      <c r="O640" s="48"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="O641" s="47"/>
+      <c r="O641" s="48"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="O642" s="47"/>
+      <c r="O642" s="48"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="O643" s="47"/>
+      <c r="O643" s="48"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="O644" s="47"/>
+      <c r="O644" s="48"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="O645" s="47"/>
+      <c r="O645" s="48"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="O646" s="47"/>
+      <c r="O646" s="48"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="O647" s="47"/>
+      <c r="O647" s="48"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="O648" s="47"/>
+      <c r="O648" s="48"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="O649" s="47"/>
+      <c r="O649" s="48"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="O650" s="47"/>
+      <c r="O650" s="48"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="O651" s="47"/>
+      <c r="O651" s="48"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="O652" s="47"/>
+      <c r="O652" s="48"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="O653" s="47"/>
+      <c r="O653" s="48"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="O654" s="47"/>
+      <c r="O654" s="48"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="O655" s="47"/>
+      <c r="O655" s="48"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="O656" s="47"/>
+      <c r="O656" s="48"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="O657" s="47"/>
+      <c r="O657" s="48"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="O658" s="47"/>
+      <c r="O658" s="48"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="O659" s="47"/>
+      <c r="O659" s="48"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="O660" s="47"/>
+      <c r="O660" s="48"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="O661" s="47"/>
+      <c r="O661" s="48"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="O662" s="47"/>
+      <c r="O662" s="48"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="O663" s="47"/>
+      <c r="O663" s="48"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="O664" s="47"/>
+      <c r="O664" s="48"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="O665" s="47"/>
+      <c r="O665" s="48"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="O666" s="47"/>
+      <c r="O666" s="48"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="O667" s="47"/>
+      <c r="O667" s="48"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="O668" s="47"/>
+      <c r="O668" s="48"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="O669" s="47"/>
+      <c r="O669" s="48"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="O670" s="47"/>
+      <c r="O670" s="48"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="O671" s="47"/>
+      <c r="O671" s="48"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="O672" s="47"/>
+      <c r="O672" s="48"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="O673" s="47"/>
+      <c r="O673" s="48"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="O674" s="47"/>
+      <c r="O674" s="48"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="O675" s="47"/>
+      <c r="O675" s="48"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="O676" s="47"/>
+      <c r="O676" s="48"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="O677" s="47"/>
+      <c r="O677" s="48"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="O678" s="47"/>
+      <c r="O678" s="48"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="O679" s="47"/>
+      <c r="O679" s="48"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="O680" s="47"/>
+      <c r="O680" s="48"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="O681" s="47"/>
+      <c r="O681" s="48"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="O682" s="47"/>
+      <c r="O682" s="48"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="O683" s="47"/>
+      <c r="O683" s="48"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="O684" s="47"/>
+      <c r="O684" s="48"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="O685" s="47"/>
+      <c r="O685" s="48"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="O686" s="47"/>
+      <c r="O686" s="48"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="O687" s="47"/>
+      <c r="O687" s="48"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="O688" s="47"/>
+      <c r="O688" s="48"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="O689" s="47"/>
+      <c r="O689" s="48"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="O690" s="47"/>
+      <c r="O690" s="48"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="O691" s="47"/>
+      <c r="O691" s="48"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="O692" s="47"/>
+      <c r="O692" s="48"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="O693" s="47"/>
+      <c r="O693" s="48"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="O694" s="47"/>
+      <c r="O694" s="48"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="O695" s="47"/>
+      <c r="O695" s="48"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="O696" s="47"/>
+      <c r="O696" s="48"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="O697" s="47"/>
+      <c r="O697" s="48"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="O698" s="47"/>
+      <c r="O698" s="48"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="O699" s="47"/>
+      <c r="O699" s="48"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="O700" s="47"/>
+      <c r="O700" s="48"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="O701" s="47"/>
+      <c r="O701" s="48"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="O702" s="47"/>
+      <c r="O702" s="48"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="O703" s="47"/>
+      <c r="O703" s="48"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="O704" s="47"/>
+      <c r="O704" s="48"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="O705" s="47"/>
+      <c r="O705" s="48"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="O706" s="47"/>
+      <c r="O706" s="48"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="O707" s="47"/>
+      <c r="O707" s="48"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="O708" s="47"/>
+      <c r="O708" s="48"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="O709" s="47"/>
+      <c r="O709" s="48"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="O710" s="47"/>
+      <c r="O710" s="48"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="O711" s="47"/>
+      <c r="O711" s="48"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="O712" s="47"/>
+      <c r="O712" s="48"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="O713" s="47"/>
+      <c r="O713" s="48"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="O714" s="47"/>
+      <c r="O714" s="48"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="O715" s="47"/>
+      <c r="O715" s="48"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="O716" s="47"/>
+      <c r="O716" s="48"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="O717" s="47"/>
+      <c r="O717" s="48"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="O718" s="47"/>
+      <c r="O718" s="48"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="O719" s="47"/>
+      <c r="O719" s="48"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="O720" s="47"/>
+      <c r="O720" s="48"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="O721" s="47"/>
+      <c r="O721" s="48"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="O722" s="47"/>
+      <c r="O722" s="48"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="O723" s="47"/>
+      <c r="O723" s="48"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="O724" s="47"/>
+      <c r="O724" s="48"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="O725" s="47"/>
+      <c r="O725" s="48"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="O726" s="47"/>
+      <c r="O726" s="48"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="O727" s="47"/>
+      <c r="O727" s="48"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="O728" s="47"/>
+      <c r="O728" s="48"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="O729" s="47"/>
+      <c r="O729" s="48"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="O730" s="47"/>
+      <c r="O730" s="48"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="O731" s="47"/>
+      <c r="O731" s="48"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="O732" s="47"/>
+      <c r="O732" s="48"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="O733" s="47"/>
+      <c r="O733" s="48"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="O734" s="47"/>
+      <c r="O734" s="48"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="O735" s="47"/>
+      <c r="O735" s="48"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="O736" s="47"/>
+      <c r="O736" s="48"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="O737" s="47"/>
+      <c r="O737" s="48"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="O738" s="47"/>
+      <c r="O738" s="48"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="O739" s="47"/>
+      <c r="O739" s="48"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="O740" s="47"/>
+      <c r="O740" s="48"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="O741" s="47"/>
+      <c r="O741" s="48"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="O742" s="47"/>
+      <c r="O742" s="48"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="O743" s="47"/>
+      <c r="O743" s="48"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="O744" s="47"/>
+      <c r="O744" s="48"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="O745" s="47"/>
+      <c r="O745" s="48"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="O746" s="47"/>
+      <c r="O746" s="48"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="O747" s="47"/>
+      <c r="O747" s="48"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="O748" s="47"/>
+      <c r="O748" s="48"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="O749" s="47"/>
+      <c r="O749" s="48"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="O750" s="47"/>
+      <c r="O750" s="48"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="O751" s="47"/>
+      <c r="O751" s="48"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="O752" s="47"/>
+      <c r="O752" s="48"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="O753" s="47"/>
+      <c r="O753" s="48"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="O754" s="47"/>
+      <c r="O754" s="48"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="O755" s="47"/>
+      <c r="O755" s="48"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="O756" s="47"/>
+      <c r="O756" s="48"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="O757" s="47"/>
+      <c r="O757" s="48"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="O758" s="47"/>
+      <c r="O758" s="48"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="O759" s="47"/>
+      <c r="O759" s="48"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="O760" s="47"/>
+      <c r="O760" s="48"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="O761" s="47"/>
+      <c r="O761" s="48"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="O762" s="47"/>
+      <c r="O762" s="48"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="O763" s="47"/>
+      <c r="O763" s="48"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="O764" s="47"/>
+      <c r="O764" s="48"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="O765" s="47"/>
+      <c r="O765" s="48"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="O766" s="47"/>
+      <c r="O766" s="48"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="O767" s="47"/>
+      <c r="O767" s="48"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="O768" s="47"/>
+      <c r="O768" s="48"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="O769" s="47"/>
+      <c r="O769" s="48"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="O770" s="47"/>
+      <c r="O770" s="48"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="O771" s="47"/>
+      <c r="O771" s="48"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="O772" s="47"/>
+      <c r="O772" s="48"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="O773" s="47"/>
+      <c r="O773" s="48"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="O774" s="47"/>
+      <c r="O774" s="48"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="O775" s="47"/>
+      <c r="O775" s="48"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="O776" s="47"/>
+      <c r="O776" s="48"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="O777" s="47"/>
+      <c r="O777" s="48"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="O778" s="47"/>
+      <c r="O778" s="48"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="O779" s="47"/>
+      <c r="O779" s="48"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="O780" s="47"/>
+      <c r="O780" s="48"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="O781" s="47"/>
+      <c r="O781" s="48"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="O782" s="47"/>
+      <c r="O782" s="48"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="O783" s="47"/>
+      <c r="O783" s="48"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="O784" s="47"/>
+      <c r="O784" s="48"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="O785" s="47"/>
+      <c r="O785" s="48"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="O786" s="47"/>
+      <c r="O786" s="48"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="O787" s="47"/>
+      <c r="O787" s="48"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="O788" s="47"/>
+      <c r="O788" s="48"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="O789" s="47"/>
+      <c r="O789" s="48"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="O790" s="47"/>
+      <c r="O790" s="48"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="O791" s="47"/>
+      <c r="O791" s="48"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="O792" s="47"/>
+      <c r="O792" s="48"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="O793" s="47"/>
+      <c r="O793" s="48"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="O794" s="47"/>
+      <c r="O794" s="48"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="O795" s="47"/>
+      <c r="O795" s="48"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="O796" s="47"/>
+      <c r="O796" s="48"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="O797" s="47"/>
+      <c r="O797" s="48"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="O798" s="47"/>
+      <c r="O798" s="48"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="O799" s="47"/>
+      <c r="O799" s="48"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="O800" s="47"/>
+      <c r="O800" s="48"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="O801" s="47"/>
+      <c r="O801" s="48"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="O802" s="47"/>
+      <c r="O802" s="48"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="O803" s="47"/>
+      <c r="O803" s="48"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="O804" s="47"/>
+      <c r="O804" s="48"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="O805" s="47"/>
+      <c r="O805" s="48"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="O806" s="47"/>
+      <c r="O806" s="48"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="O807" s="47"/>
+      <c r="O807" s="48"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="O808" s="47"/>
+      <c r="O808" s="48"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="O809" s="47"/>
+      <c r="O809" s="48"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="O810" s="47"/>
+      <c r="O810" s="48"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="O811" s="47"/>
+      <c r="O811" s="48"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="O812" s="47"/>
+      <c r="O812" s="48"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="O813" s="47"/>
+      <c r="O813" s="48"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="O814" s="47"/>
+      <c r="O814" s="48"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="O815" s="47"/>
+      <c r="O815" s="48"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="O816" s="47"/>
+      <c r="O816" s="48"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="O817" s="47"/>
+      <c r="O817" s="48"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="O818" s="47"/>
+      <c r="O818" s="48"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="O819" s="47"/>
+      <c r="O819" s="48"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="O820" s="47"/>
+      <c r="O820" s="48"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="O821" s="47"/>
+      <c r="O821" s="48"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="O822" s="47"/>
+      <c r="O822" s="48"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="O823" s="47"/>
+      <c r="O823" s="48"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="O824" s="47"/>
+      <c r="O824" s="48"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="O825" s="47"/>
+      <c r="O825" s="48"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="O826" s="47"/>
+      <c r="O826" s="48"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="O827" s="47"/>
+      <c r="O827" s="48"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="O828" s="47"/>
+      <c r="O828" s="48"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="O829" s="47"/>
+      <c r="O829" s="48"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="O830" s="47"/>
+      <c r="O830" s="48"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="O831" s="47"/>
+      <c r="O831" s="48"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="O832" s="47"/>
+      <c r="O832" s="48"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="O833" s="47"/>
+      <c r="O833" s="48"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="O834" s="47"/>
+      <c r="O834" s="48"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="O835" s="47"/>
+      <c r="O835" s="48"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="O836" s="47"/>
+      <c r="O836" s="48"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="O837" s="47"/>
+      <c r="O837" s="48"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="O838" s="47"/>
+      <c r="O838" s="48"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="O839" s="47"/>
+      <c r="O839" s="48"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="O840" s="47"/>
+      <c r="O840" s="48"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="O841" s="47"/>
+      <c r="O841" s="48"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="O842" s="47"/>
+      <c r="O842" s="48"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="O843" s="47"/>
+      <c r="O843" s="48"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="O844" s="47"/>
+      <c r="O844" s="48"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="O845" s="47"/>
+      <c r="O845" s="48"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="O846" s="47"/>
+      <c r="O846" s="48"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="O847" s="47"/>
+      <c r="O847" s="48"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="O848" s="47"/>
+      <c r="O848" s="48"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="O849" s="47"/>
+      <c r="O849" s="48"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="O850" s="47"/>
+      <c r="O850" s="48"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="O851" s="47"/>
+      <c r="O851" s="48"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="O852" s="47"/>
+      <c r="O852" s="48"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="O853" s="47"/>
+      <c r="O853" s="48"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="O854" s="47"/>
+      <c r="O854" s="48"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="O855" s="47"/>
+      <c r="O855" s="48"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="O856" s="47"/>
+      <c r="O856" s="48"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="O857" s="47"/>
+      <c r="O857" s="48"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="O858" s="47"/>
+      <c r="O858" s="48"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="O859" s="47"/>
+      <c r="O859" s="48"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="O860" s="47"/>
+      <c r="O860" s="48"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="O861" s="47"/>
+      <c r="O861" s="48"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="O862" s="47"/>
+      <c r="O862" s="48"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="O863" s="47"/>
+      <c r="O863" s="48"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="O864" s="47"/>
+      <c r="O864" s="48"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="O865" s="47"/>
+      <c r="O865" s="48"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="O866" s="47"/>
+      <c r="O866" s="48"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="O867" s="47"/>
+      <c r="O867" s="48"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="O868" s="47"/>
+      <c r="O868" s="48"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="O869" s="47"/>
+      <c r="O869" s="48"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="O870" s="47"/>
+      <c r="O870" s="48"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="O871" s="47"/>
+      <c r="O871" s="48"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="O872" s="47"/>
+      <c r="O872" s="48"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="O873" s="47"/>
+      <c r="O873" s="48"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="O874" s="47"/>
+      <c r="O874" s="48"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="O875" s="47"/>
+      <c r="O875" s="48"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="O876" s="47"/>
+      <c r="O876" s="48"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="O877" s="47"/>
+      <c r="O877" s="48"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="O878" s="47"/>
+      <c r="O878" s="48"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="O879" s="47"/>
+      <c r="O879" s="48"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="O880" s="47"/>
+      <c r="O880" s="48"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="O881" s="47"/>
+      <c r="O881" s="48"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="O882" s="47"/>
+      <c r="O882" s="48"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="O883" s="47"/>
+      <c r="O883" s="48"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="O884" s="47"/>
+      <c r="O884" s="48"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="O885" s="47"/>
+      <c r="O885" s="48"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="O886" s="47"/>
+      <c r="O886" s="48"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="O887" s="47"/>
+      <c r="O887" s="48"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="O888" s="47"/>
+      <c r="O888" s="48"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="O889" s="47"/>
+      <c r="O889" s="48"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="O890" s="47"/>
+      <c r="O890" s="48"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="O891" s="47"/>
+      <c r="O891" s="48"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="O892" s="47"/>
+      <c r="O892" s="48"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="O893" s="47"/>
+      <c r="O893" s="48"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="O894" s="47"/>
+      <c r="O894" s="48"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="O895" s="47"/>
+      <c r="O895" s="48"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="O896" s="47"/>
+      <c r="O896" s="48"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="O897" s="47"/>
+      <c r="O897" s="48"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="O898" s="47"/>
+      <c r="O898" s="48"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="O899" s="47"/>
+      <c r="O899" s="48"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="O900" s="47"/>
+      <c r="O900" s="48"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="O901" s="47"/>
+      <c r="O901" s="48"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="O902" s="47"/>
+      <c r="O902" s="48"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="O903" s="47"/>
+      <c r="O903" s="48"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="O904" s="47"/>
+      <c r="O904" s="48"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="O905" s="47"/>
+      <c r="O905" s="48"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="O906" s="47"/>
+      <c r="O906" s="48"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="O907" s="47"/>
+      <c r="O907" s="48"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="O908" s="47"/>
+      <c r="O908" s="48"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="O909" s="47"/>
+      <c r="O909" s="48"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="O910" s="47"/>
+      <c r="O910" s="48"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="O911" s="47"/>
+      <c r="O911" s="48"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="O912" s="47"/>
+      <c r="O912" s="48"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="O913" s="47"/>
+      <c r="O913" s="48"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="O914" s="47"/>
+      <c r="O914" s="48"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="O915" s="47"/>
+      <c r="O915" s="48"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="O916" s="47"/>
+      <c r="O916" s="48"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="O917" s="47"/>
+      <c r="O917" s="48"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="O918" s="47"/>
+      <c r="O918" s="48"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="O919" s="47"/>
+      <c r="O919" s="48"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="O920" s="47"/>
+      <c r="O920" s="48"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="O921" s="47"/>
+      <c r="O921" s="48"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="O922" s="47"/>
+      <c r="O922" s="48"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="O923" s="47"/>
+      <c r="O923" s="48"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="O924" s="47"/>
+      <c r="O924" s="48"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="O925" s="47"/>
+      <c r="O925" s="48"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="O926" s="47"/>
+      <c r="O926" s="48"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="O927" s="47"/>
+      <c r="O927" s="48"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="O928" s="47"/>
+      <c r="O928" s="48"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="O929" s="47"/>
+      <c r="O929" s="48"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="O930" s="47"/>
+      <c r="O930" s="48"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="O931" s="47"/>
+      <c r="O931" s="48"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="O932" s="47"/>
+      <c r="O932" s="48"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="O933" s="47"/>
+      <c r="O933" s="48"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="O934" s="47"/>
+      <c r="O934" s="48"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="O935" s="47"/>
+      <c r="O935" s="48"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="O936" s="47"/>
+      <c r="O936" s="48"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="O937" s="47"/>
+      <c r="O937" s="48"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="O938" s="47"/>
+      <c r="O938" s="48"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="O939" s="47"/>
+      <c r="O939" s="48"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="O940" s="47"/>
+      <c r="O940" s="48"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="O941" s="47"/>
+      <c r="O941" s="48"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="O942" s="47"/>
+      <c r="O942" s="48"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="O943" s="47"/>
+      <c r="O943" s="48"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="O944" s="47"/>
+      <c r="O944" s="48"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="O945" s="47"/>
+      <c r="O945" s="48"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="O946" s="47"/>
+      <c r="O946" s="48"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="O947" s="47"/>
+      <c r="O947" s="48"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="O948" s="47"/>
+      <c r="O948" s="48"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="O949" s="47"/>
+      <c r="O949" s="48"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="O950" s="47"/>
+      <c r="O950" s="48"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="O951" s="47"/>
+      <c r="O951" s="48"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="O952" s="47"/>
+      <c r="O952" s="48"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="O953" s="47"/>
+      <c r="O953" s="48"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="O954" s="47"/>
+      <c r="O954" s="48"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="O955" s="47"/>
+      <c r="O955" s="48"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="O956" s="47"/>
+      <c r="O956" s="48"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="O957" s="47"/>
+      <c r="O957" s="48"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="O958" s="47"/>
+      <c r="O958" s="48"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="O959" s="47"/>
+      <c r="O959" s="48"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="O960" s="47"/>
+      <c r="O960" s="48"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="O961" s="47"/>
+      <c r="O961" s="48"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="O962" s="47"/>
+      <c r="O962" s="48"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="O963" s="47"/>
+      <c r="O963" s="48"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="O964" s="47"/>
+      <c r="O964" s="48"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="O965" s="47"/>
+      <c r="O965" s="48"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="O966" s="47"/>
+      <c r="O966" s="48"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="O967" s="47"/>
+      <c r="O967" s="48"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="O968" s="47"/>
+      <c r="O968" s="48"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="O969" s="47"/>
+      <c r="O969" s="48"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="O970" s="47"/>
+      <c r="O970" s="48"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="O971" s="47"/>
+      <c r="O971" s="48"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="O972" s="47"/>
+      <c r="O972" s="48"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="O973" s="47"/>
+      <c r="O973" s="48"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="O974" s="47"/>
+      <c r="O974" s="48"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="O975" s="47"/>
+      <c r="O975" s="48"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="O976" s="47"/>
+      <c r="O976" s="48"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="O977" s="47"/>
+      <c r="O977" s="48"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="O978" s="47"/>
+      <c r="O978" s="48"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="O979" s="47"/>
+      <c r="O979" s="48"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="O980" s="47"/>
+      <c r="O980" s="48"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="O981" s="47"/>
+      <c r="O981" s="48"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="O982" s="47"/>
+      <c r="O982" s="48"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="O983" s="47"/>
+      <c r="O983" s="48"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="O984" s="47"/>
+      <c r="O984" s="48"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="O985" s="47"/>
+      <c r="O985" s="48"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="O986" s="47"/>
+      <c r="O986" s="48"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="O987" s="47"/>
+      <c r="O987" s="48"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="O988" s="47"/>
+      <c r="O988" s="48"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="O989" s="47"/>
+      <c r="O989" s="48"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="O990" s="47"/>
+      <c r="O990" s="48"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="O991" s="47"/>
+      <c r="O991" s="48"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="O992" s="47"/>
+      <c r="O992" s="48"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="O993" s="47"/>
+      <c r="O993" s="48"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="O994" s="47"/>
+      <c r="O994" s="48"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="O995" s="47"/>
+      <c r="O995" s="48"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="O996" s="47"/>
+      <c r="O996" s="48"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="O997" s="47"/>
+      <c r="O997" s="48"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="O998" s="47"/>
+      <c r="O998" s="48"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="O999" s="47"/>
+      <c r="O999" s="48"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="O1000" s="47"/>
+      <c r="O1000" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="7">
